--- a/src/main/resources/static/template/Employee.xlsx
+++ b/src/main/resources/static/template/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A7F47A-CD49-471D-8D44-4F928F9A09A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37F1D1D-C8C9-483A-B105-8D5833EC8B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -42,28 +42,25 @@
     <t>Adress</t>
   </si>
   <si>
-    <t>,akmwnd,ad</t>
-  </si>
-  <si>
-    <t>dliawhodawd</t>
-  </si>
-  <si>
-    <t>e1e</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e1@gmail.com</t>
-  </si>
-  <si>
-    <t>e2@gmail.com</t>
-  </si>
-  <si>
-    <t>0349850534</t>
-  </si>
-  <si>
-    <t>0349850533</t>
+    <t>Employee1</t>
+  </si>
+  <si>
+    <t>Employee2</t>
+  </si>
+  <si>
+    <t>employee1@gmail.com</t>
+  </si>
+  <si>
+    <t>339 Đ. Nam Kỳ Khởi Nghĩa, Phường 14, Quận 3, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>0349830534</t>
+  </si>
+  <si>
+    <t>0349550533</t>
+  </si>
+  <si>
+    <t>Lô A, Khu Dân Cư Cityland, 99 Nguyễn Thị Thập, Tân Phú, Quận 7, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,16 +427,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -447,16 +444,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
